--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A20A60-99EE-4CD1-B542-54F56E512BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348113D9-F5A3-4CD3-AF8D-8EBA6C7C64BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,8 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348113D9-F5A3-4CD3-AF8D-8EBA6C7C64BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953B666-AEA8-477B-B183-1A5D3192901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -566,6 +569,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953B666-AEA8-477B-B183-1A5D3192901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B18BF6C-5F98-4B8D-9FBC-0BFF2AA73EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,63 @@
   </si>
   <si>
     <t>Device size(LxWxH/mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF060100000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热敏电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B57332V5103F360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\06_Sensor_Components.SchLib</t>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\001-Resistance.PcbLib</t>
+  </si>
+  <si>
+    <t>C209893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\06_Sensor_Components\B573xxV5_TDK_DS_20250401.pdf</t>
+  </si>
+  <si>
+    <t>1.6mm*0.8mm*0.45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热敏电阻-负温度系数-B57332V5103F360-R25=10kohm/B=3380~3455-±1%-TDK-0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±1%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +254,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -491,15 +554,15 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -566,6 +629,56 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B18BF6C-5F98-4B8D-9FBC-0BFF2AA73EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E58F17-2F8C-49F9-B01E-6E707CE84429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,9 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -560,8 +560,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E58F17-2F8C-49F9-B01E-6E707CE84429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EE037-9EDB-42D3-9D08-1847339B8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +261,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,9 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -554,7 +560,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -581,7 +587,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -646,7 +652,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="4" t="s">

--- a/AD_Library/Excel/06_Sensor_Components.xlsx
+++ b/AD_Library/Excel/06_Sensor_Components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EE037-9EDB-42D3-9D08-1847339B8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32045D8-A333-4931-9574-D6D6871F6090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF060100000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>热敏电阻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,9 @@
   <si>
     <t>±1%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF06010001</t>
   </si>
 </sst>
 </file>
@@ -552,26 +551,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -636,54 +635,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
